--- a/Statistics for Data Science and Business Analysis/Section 4/2.8.Skewness-exercise-solution.xlsx
+++ b/Statistics for Data Science and Business Analysis/Section 4/2.8.Skewness-exercise-solution.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462954E1-0002-4415-8658-D0F4FCE7BAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skewness" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Skewness!$L$10:$L$39</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Skewness!$B$10:$B$39</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Skewness!$L$10:$L$39</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Skewness!$L$10:$L$39</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Skewness!$B$10:$B$39</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -102,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,7 +214,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -293,7 +302,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2025,8 +2034,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1234440" y="2004060"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="1215390" y="2053590"/>
+              <a:ext cx="4429125" cy="2887980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2045,9 +2054,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="es-MX" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2103,8 +2112,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7018020" y="1981200"/>
-              <a:ext cx="3718560" cy="2019300"/>
+              <a:off x="6817995" y="2023110"/>
+              <a:ext cx="3604260" cy="2125980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2123,9 +2132,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="es-MX" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2181,8 +2190,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6995160" y="4061460"/>
-              <a:ext cx="3718560" cy="2011680"/>
+              <a:off x="6795135" y="4217670"/>
+              <a:ext cx="3604260" cy="2118360"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2201,9 +2210,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="es-MX" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2477,26 +2486,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="4.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2504,7 +2515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2512,7 +2523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2520,12 +2531,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
@@ -2547,7 +2558,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>869</v>
       </c>
@@ -2801,7 +2812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N44" s="1" t="s">
         <v>11</v>
       </c>
